--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bablove/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA C++\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A296DB3B-D750-F440-AE8C-C019300B98C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133A5C4-7CC8-4655-A74F-12662711F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="940" windowWidth="27640" windowHeight="16200" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="466">
   <si>
     <t>Questions by Love Babbar:</t>
   </si>
@@ -1426,6 +1420,9 @@
   </si>
   <si>
     <t xml:space="preserve">Youtube Channel: https://www.youtube.com/channel/UCQHLxxBFrbfdrk1jF0moTpw </t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1495,12 +1492,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1516,7 +1519,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1540,6 +1543,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1857,18 +1868,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="28.5" customWidth="1"/>
     <col min="2" max="2" width="123" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26">
+    <row r="1" spans="1:3" ht="25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1890,41 +1901,39 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="5" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="21">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="21">
-      <c r="A8" s="5" t="s">
+      <c r="C7" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>4</v>
+      <c r="C8" s="13" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">

--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA C++\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3133A5C4-7CC8-4655-A74F-12662711F338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8107083E-B348-4712-8E27-DA59B162E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1868,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1936,14 +1936,14 @@
         <v>465</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="13" t="s">
         <v>4</v>
       </c>
     </row>

--- a/DSA/FINAL450.xlsx
+++ b/DSA/FINAL450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DSA C++\DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8107083E-B348-4712-8E27-DA59B162E748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C3A6CE-E17C-4C4E-9C9F-41DBD7664F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1492,7 +1492,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1502,6 +1502,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1519,7 +1525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,6 +1557,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1868,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -1947,47 +1961,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="21">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="18" customFormat="1" ht="21">
+      <c r="A11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="21">
-      <c r="A12" s="5" t="s">
+      <c r="C11" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A12" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="21">
-      <c r="A13" s="5" t="s">
+      <c r="C12" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2035,14 +2049,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:3" s="14" customFormat="1" ht="21">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
     </row>
